--- a/storage/app/public/files/files_out/Centro_de_Costos_122_2.xlsx
+++ b/storage/app/public/files/files_out/Centro_de_Costos_122_2.xlsx
@@ -1002,7 +1002,7 @@
     <t>Certificado de Registro Presupuestal</t>
   </si>
   <si>
-    <t>CONCILIACIÓN CENTRO DE COSTOS ##</t>
+    <t>CONCILIACIÓN CENTRO DE COSTOS 122</t>
   </si>
   <si>
     <t>Ingresos</t>
@@ -1054,6 +1054,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
   <fonts count="3">
@@ -1081,12 +1082,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACB9CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1103,6 +1116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,21 +1153,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,172 +1488,232 @@
       <c r="A1" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="2">
-        <f>Recaudos_SAP!B9</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <f>Ingresos_SIGEP!B2</f>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <f>Recaudos_SAP!B10</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
         <v>412929241</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4">
         <v>233265988</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4">
         <v>233265988</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
-        <v>9900165234</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-412929241</v>
+      <c r="A9" s="3">
+        <v>4800279271</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="4">
+        <v>-233265988</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9900165842</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="A10" s="3">
+        <v>4800279907</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="4">
         <v>-233265988</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
-        <v>4800279271</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-233265988</v>
+      <c r="A11" s="3">
+        <v>9900165234</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="E11" s="4">
+        <v>-412929241</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
-        <v>4800279907</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="A12" s="3">
+        <v>9900165842</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="E12" s="4">
         <v>-233265988</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D14" s="2">
-        <f>D5-SUM(D6:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <f>E5</f>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4">
+        <f>D5-SUM(D6:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E5-SUM(E9:E12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E15" s="3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="6">
         <f>D14-E14</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D18" s="2">
-        <f>Pagos_SAP!B13</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <f>Egresos_SIGEP!B13</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E19" s="2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="4">
         <f>SS!B10</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D21" s="2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4">
         <f>D18</f>
         <v>0</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <f>SUM(E18:E19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E22" s="3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="6">
         <f>D21-E21</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GB9"/>
+  <dimension ref="A1:GB10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1634,2273 +1726,2278 @@
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:184" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:184" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BK1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BR1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BS1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BT1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BU1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BV1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BW1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BX1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BY1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CA1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CB1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CC1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CD1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CE1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CF1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CG1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CH1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CI1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CK1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CL1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CM1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CN1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CO1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CP1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="CR1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="5" t="s">
+      <c r="CS1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="5" t="s">
+      <c r="CT1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="5" t="s">
+      <c r="CU1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="5" t="s">
+      <c r="CV1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="5" t="s">
+      <c r="CW1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="5" t="s">
+      <c r="CX1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="5" t="s">
+      <c r="CY1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="5" t="s">
+      <c r="CZ1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="5" t="s">
+      <c r="DA1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="5" t="s">
+      <c r="DB1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="5" t="s">
+      <c r="DC1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="5" t="s">
+      <c r="DD1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="5" t="s">
+      <c r="DE1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="5" t="s">
+      <c r="DF1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DG1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="5" t="s">
+      <c r="DH1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DI1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DJ1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DK1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="5" t="s">
+      <c r="DL1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DM1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="5" t="s">
+      <c r="DN1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="5" t="s">
+      <c r="DO1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="5" t="s">
+      <c r="DP1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="5" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="5" t="s">
+      <c r="DR1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="5" t="s">
+      <c r="DS1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="5" t="s">
+      <c r="DT1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="5" t="s">
+      <c r="DU1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="5" t="s">
+      <c r="DV1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="DW1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="5" t="s">
+      <c r="DX1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="5" t="s">
+      <c r="DY1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="5" t="s">
+      <c r="DZ1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="5" t="s">
+      <c r="EA1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="5" t="s">
+      <c r="EB1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="EC1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="5" t="s">
+      <c r="ED1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="5" t="s">
+      <c r="EE1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="5" t="s">
+      <c r="EF1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="5" t="s">
+      <c r="EG1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="5" t="s">
+      <c r="EH1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="5" t="s">
+      <c r="EI1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="5" t="s">
+      <c r="EJ1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="5" t="s">
+      <c r="EK1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="5" t="s">
+      <c r="EL1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="5" t="s">
+      <c r="EM1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="5" t="s">
+      <c r="EN1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="5" t="s">
+      <c r="EO1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="5" t="s">
+      <c r="EP1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="5" t="s">
+      <c r="EQ1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="5" t="s">
+      <c r="ER1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="5" t="s">
+      <c r="ES1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="5" t="s">
+      <c r="ET1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="5" t="s">
+      <c r="EU1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="5" t="s">
+      <c r="EV1" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="5" t="s">
+      <c r="EW1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="5" t="s">
+      <c r="EX1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="5" t="s">
+      <c r="EY1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="5" t="s">
+      <c r="EZ1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="5" t="s">
+      <c r="FA1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="5" t="s">
+      <c r="FB1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="5" t="s">
+      <c r="FC1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="5" t="s">
+      <c r="FD1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="5" t="s">
+      <c r="FE1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="5" t="s">
+      <c r="FF1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="5" t="s">
+      <c r="FG1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="5" t="s">
+      <c r="FH1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="5" t="s">
+      <c r="FI1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="5" t="s">
+      <c r="FJ1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="5" t="s">
+      <c r="FK1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="5" t="s">
+      <c r="FL1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="5" t="s">
+      <c r="FM1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="5" t="s">
+      <c r="FN1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="5" t="s">
+      <c r="FO1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="5" t="s">
+      <c r="FP1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="5" t="s">
+      <c r="FQ1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="5" t="s">
+      <c r="FR1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="5" t="s">
+      <c r="FS1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="5" t="s">
+      <c r="FT1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="5" t="s">
+      <c r="FU1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="5" t="s">
+      <c r="FV1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="5" t="s">
+      <c r="FW1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="5" t="s">
+      <c r="FX1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="5" t="s">
+      <c r="FY1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="5" t="s">
+      <c r="FZ1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="5" t="s">
+      <c r="GA1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="5" t="s">
+      <c r="GB1" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:184" s="6" customFormat="1">
-      <c r="A2" s="6">
+    <row r="2" spans="1:184" s="9" customFormat="1">
+      <c r="A2" s="9">
         <v>4800277998</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>412929241</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>4800277998</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
         <v>21930002</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="9">
         <v>57</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="9">
         <v>250</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="9">
         <v>13120101</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="9">
         <v>10</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="9">
         <v>9999</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="9">
         <v>9999999999</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="9">
         <v>9999999992</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="9">
         <v>2019</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="10">
         <f>SUMAR.SI.CONJUNTO(Ingresos_SIGEP!B:B,Ingresos_SIGEP!A:A,Recaudos_SAP!A2,Ingresos_SIGEP!G:G,Recaudos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="10">
         <f>SUMAR.SI.CONJUNTO(Recaudos_SAP!B:B,Recaudos_SAP!A:A,Recaudos_SAP!A2,Recaudos_SAP!G:G,Recaudos_SAP!G:G)-Y2</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="9">
         <v>2</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2" s="9">
         <v>30</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="9">
         <v>1.2019</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="AO2" s="9">
         <v>3000000043386649</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AX2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="6">
+      <c r="AX2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="9">
         <v>21930002</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BF2" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="BG2" s="6" t="s">
+      <c r="BG2" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="BH2" s="6">
+      <c r="BH2" s="9">
         <v>4800277998</v>
       </c>
-      <c r="BI2" s="6" t="s">
+      <c r="BI2" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="BK2" s="6">
+      <c r="BK2" s="9">
         <v>2019</v>
       </c>
-      <c r="BL2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="6">
+      <c r="BL2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="9">
         <v>2019</v>
       </c>
-      <c r="BP2" s="6" t="s">
+      <c r="BP2" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="BQ2" s="6" t="s">
+      <c r="BQ2" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="BR2" s="6" t="s">
+      <c r="BR2" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="BS2" s="6" t="s">
+      <c r="BS2" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="BT2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="6">
+      <c r="BT2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="9">
         <v>412929241</v>
       </c>
-      <c r="BV2" s="6">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="6">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="6" t="s">
+      <c r="BV2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="CD2" s="8">
+      <c r="CD2" s="11">
         <v>43496</v>
       </c>
-      <c r="CE2" s="6">
-        <v>1</v>
-      </c>
-      <c r="CF2" s="8">
+      <c r="CE2" s="9">
+        <v>1</v>
+      </c>
+      <c r="CF2" s="11">
         <v>43496</v>
       </c>
-      <c r="CG2" s="8">
+      <c r="CG2" s="11">
         <v>43518</v>
       </c>
-      <c r="CH2" s="6" t="s">
+      <c r="CH2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="CJ2" s="6" t="s">
+      <c r="CJ2" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="CK2" s="6" t="s">
+      <c r="CK2" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="CN2" s="6" t="s">
+      <c r="CN2" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="CV2" s="6">
+      <c r="CV2" s="9">
         <v>2</v>
       </c>
-      <c r="DG2" s="6">
-        <v>0</v>
-      </c>
-      <c r="DH2" s="6">
-        <v>0</v>
-      </c>
-      <c r="EY2" s="6" t="s">
+      <c r="DG2" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="9">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="EZ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="FB2" s="6">
+      <c r="EZ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="9">
         <v>104031594</v>
       </c>
-      <c r="FC2" s="6">
+      <c r="FC2" s="9">
         <v>4800277998</v>
       </c>
-      <c r="FE2" s="8">
+      <c r="FE2" s="11">
         <v>43518</v>
       </c>
-      <c r="FF2" s="6">
-        <v>0</v>
-      </c>
-      <c r="FJ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="FK2" s="6">
-        <v>1</v>
-      </c>
-      <c r="FM2" s="6">
-        <v>0</v>
-      </c>
-      <c r="FN2" s="6">
-        <v>0</v>
-      </c>
-      <c r="FQ2" s="6" t="s">
+      <c r="FF2" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="9">
+        <v>1</v>
+      </c>
+      <c r="FM2" s="9">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ2" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="FX2" s="6">
-        <v>0</v>
-      </c>
-      <c r="FY2" s="6">
-        <v>0</v>
-      </c>
-      <c r="FZ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="GA2" s="6">
+      <c r="FX2" s="9">
+        <v>0</v>
+      </c>
+      <c r="FY2" s="9">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="GA2" s="9">
         <v>412929241</v>
       </c>
-      <c r="GB2" s="6">
+      <c r="GB2" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:184" s="9" customFormat="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:184" s="12" customFormat="1">
+      <c r="A3" s="12">
         <v>9900165234</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="13">
         <v>-412929241</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>9900165234</v>
       </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>21930002</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="12">
         <v>57</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="12">
         <v>250</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="12">
         <v>13120101</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="12">
         <v>10</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="12">
         <v>9999</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="12">
         <v>9999999992</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="12">
         <v>2019</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="13">
         <f>SUMAR.SI.CONJUNTO(Ingresos_SIGEP!B:B,Ingresos_SIGEP!A:A,Recaudos_SAP!A3,Ingresos_SIGEP!G:G,Recaudos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="13">
         <f>SUMAR.SI.CONJUNTO(Recaudos_SAP!B:B,Recaudos_SAP!A:A,Recaudos_SAP!A3,Recaudos_SAP!G:G,Recaudos_SAP!G:G)-Y3</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="12">
         <v>2</v>
       </c>
-      <c r="AI3" s="9">
+      <c r="AI3" s="12">
         <v>30</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AN3" s="9">
+      <c r="AN3" s="12">
         <v>1.2019</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AO3" s="12">
         <v>3000000043388371</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AT3" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AU3" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AX3" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="9">
+      <c r="AX3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="12">
         <v>21930002</v>
       </c>
-      <c r="BF3" s="9" t="s">
+      <c r="BF3" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="BG3" s="9" t="s">
+      <c r="BG3" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="BH3" s="9">
+      <c r="BH3" s="12">
         <v>9900165234</v>
       </c>
-      <c r="BI3" s="9" t="s">
+      <c r="BI3" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="BK3" s="9">
+      <c r="BK3" s="12">
         <v>2019</v>
       </c>
-      <c r="BL3" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="9">
+      <c r="BL3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="12">
         <v>2019</v>
       </c>
-      <c r="BP3" s="9" t="s">
+      <c r="BP3" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="BQ3" s="9" t="s">
+      <c r="BQ3" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="BR3" s="9" t="s">
+      <c r="BR3" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="BS3" s="9" t="s">
+      <c r="BS3" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="BT3" s="9">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="9">
+      <c r="BT3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="12">
         <v>-412929241</v>
       </c>
-      <c r="BV3" s="9">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="9">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="9" t="s">
+      <c r="BV3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="CD3" s="8">
+      <c r="CD3" s="11">
         <v>43496</v>
       </c>
-      <c r="CE3" s="9">
-        <v>1</v>
-      </c>
-      <c r="CF3" s="8">
+      <c r="CE3" s="12">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="11">
         <v>43496</v>
       </c>
-      <c r="CG3" s="8">
+      <c r="CG3" s="11">
         <v>43518</v>
       </c>
-      <c r="CH3" s="9" t="s">
+      <c r="CH3" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="CJ3" s="9" t="s">
+      <c r="CJ3" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="CK3" s="9" t="s">
+      <c r="CK3" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="CN3" s="9" t="s">
+      <c r="CN3" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="CV3" s="9">
+      <c r="CV3" s="12">
         <v>2</v>
       </c>
-      <c r="DG3" s="9">
-        <v>0</v>
-      </c>
-      <c r="DH3" s="9">
-        <v>0</v>
-      </c>
-      <c r="EY3" s="9" t="s">
+      <c r="DG3" s="12">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="12">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="EZ3" s="9">
-        <v>0</v>
-      </c>
-      <c r="FB3" s="9">
+      <c r="EZ3" s="12">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="12">
         <v>104032082</v>
       </c>
-      <c r="FC3" s="9">
+      <c r="FC3" s="12">
         <v>9900165234</v>
       </c>
-      <c r="FE3" s="8">
+      <c r="FE3" s="11">
         <v>43518</v>
       </c>
-      <c r="FF3" s="9">
-        <v>0</v>
-      </c>
-      <c r="FJ3" s="9">
-        <v>0</v>
-      </c>
-      <c r="FK3" s="9">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="9">
-        <v>0</v>
-      </c>
-      <c r="FN3" s="9">
-        <v>0</v>
-      </c>
-      <c r="FQ3" s="9" t="s">
+      <c r="FF3" s="12">
+        <v>0</v>
+      </c>
+      <c r="FJ3" s="12">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="12">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="12">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="12">
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="FX3" s="9">
-        <v>0</v>
-      </c>
-      <c r="FY3" s="9">
-        <v>0</v>
-      </c>
-      <c r="FZ3" s="9">
-        <v>0</v>
-      </c>
-      <c r="GA3" s="9">
+      <c r="FX3" s="12">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="12">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="12">
+        <v>0</v>
+      </c>
+      <c r="GA3" s="12">
         <v>412929241</v>
       </c>
-      <c r="GB3" s="9">
+      <c r="GB3" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:184" s="6" customFormat="1">
-      <c r="A4" s="6">
+    <row r="4" spans="1:184" s="9" customFormat="1">
+      <c r="A4" s="9">
         <v>4800278605</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>233265988</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>4800278605</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <v>21930002</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="9">
         <v>57</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="9">
         <v>250</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="9">
         <v>13120101</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="9">
         <v>10</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="9">
         <v>9999</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="9">
         <v>9999999999</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="9">
         <v>9999999992</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="9">
         <v>2019</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="10">
         <f>SUMAR.SI.CONJUNTO(Ingresos_SIGEP!B:B,Ingresos_SIGEP!A:A,Recaudos_SAP!A4,Ingresos_SIGEP!G:G,Recaudos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="10">
         <f>SUMAR.SI.CONJUNTO(Recaudos_SAP!B:B,Recaudos_SAP!A:A,Recaudos_SAP!A4,Recaudos_SAP!G:G,Recaudos_SAP!G:G)-Y4</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AG4" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AH4" s="9">
         <v>2</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="9">
         <v>30</v>
       </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AK4" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="9">
         <v>1.2019</v>
       </c>
-      <c r="AO4" s="6">
+      <c r="AO4" s="9">
         <v>3000000043390530</v>
       </c>
-      <c r="AQ4" s="6" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR4" s="6" t="s">
+      <c r="AR4" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AS4" s="6" t="s">
+      <c r="AS4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AT4" s="6" t="s">
+      <c r="AT4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AU4" s="6" t="s">
+      <c r="AU4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AX4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="6">
+      <c r="AX4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="9">
         <v>21930002</v>
       </c>
-      <c r="BF4" s="6" t="s">
+      <c r="BF4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="BG4" s="6" t="s">
+      <c r="BG4" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="BH4" s="6">
+      <c r="BH4" s="9">
         <v>4800278605</v>
       </c>
-      <c r="BI4" s="6" t="s">
+      <c r="BI4" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="BK4" s="6">
+      <c r="BK4" s="9">
         <v>2019</v>
       </c>
-      <c r="BL4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="6">
+      <c r="BL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="9">
         <v>2019</v>
       </c>
-      <c r="BP4" s="6" t="s">
+      <c r="BP4" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="BQ4" s="6" t="s">
+      <c r="BQ4" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="BR4" s="6" t="s">
+      <c r="BR4" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="BS4" s="6" t="s">
+      <c r="BS4" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="BT4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="6">
+      <c r="BT4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="9">
         <v>233265988</v>
       </c>
-      <c r="BV4" s="6">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="6">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="6" t="s">
+      <c r="BV4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="CD4" s="8">
+      <c r="CD4" s="11">
         <v>43496</v>
       </c>
-      <c r="CE4" s="6">
-        <v>1</v>
-      </c>
-      <c r="CF4" s="8">
+      <c r="CE4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="11">
         <v>43496</v>
       </c>
-      <c r="CG4" s="8">
+      <c r="CG4" s="11">
         <v>43518</v>
       </c>
-      <c r="CH4" s="6" t="s">
+      <c r="CH4" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="CJ4" s="6" t="s">
+      <c r="CJ4" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="CK4" s="6" t="s">
+      <c r="CK4" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="CN4" s="6" t="s">
+      <c r="CN4" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="CV4" s="6">
-        <v>1</v>
-      </c>
-      <c r="DG4" s="6">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="6">
-        <v>0</v>
-      </c>
-      <c r="EY4" s="6" t="s">
+      <c r="CV4" s="9">
+        <v>1</v>
+      </c>
+      <c r="DG4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="EY4" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="EZ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="FB4" s="6">
+      <c r="EZ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FB4" s="9">
         <v>104032724</v>
       </c>
-      <c r="FC4" s="6">
+      <c r="FC4" s="9">
         <v>4800278605</v>
       </c>
-      <c r="FE4" s="8">
+      <c r="FE4" s="11">
         <v>43518</v>
       </c>
-      <c r="FF4" s="6">
-        <v>0</v>
-      </c>
-      <c r="FJ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="FK4" s="6">
-        <v>1</v>
-      </c>
-      <c r="FM4" s="6">
-        <v>0</v>
-      </c>
-      <c r="FN4" s="6">
-        <v>0</v>
-      </c>
-      <c r="FQ4" s="6" t="s">
+      <c r="FF4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="9">
+        <v>1</v>
+      </c>
+      <c r="FM4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="FX4" s="6">
-        <v>0</v>
-      </c>
-      <c r="FY4" s="6">
-        <v>0</v>
-      </c>
-      <c r="FZ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="GA4" s="6">
+      <c r="FX4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FY4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="GA4" s="9">
         <v>233265988</v>
       </c>
-      <c r="GB4" s="6">
+      <c r="GB4" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:184" s="9" customFormat="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:184" s="12" customFormat="1">
+      <c r="A5" s="12">
         <v>9900165842</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="13">
         <v>-233265988</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="12">
         <v>9900165842</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
         <v>21930002</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="12">
         <v>57</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="12">
         <v>250</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="12">
         <v>13120101</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="12">
         <v>10</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="12">
         <v>9999</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="12">
         <v>9999999992</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="12">
         <v>2019</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="13">
         <f>SUMAR.SI.CONJUNTO(Ingresos_SIGEP!B:B,Ingresos_SIGEP!A:A,Recaudos_SAP!A5,Ingresos_SIGEP!G:G,Recaudos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="13">
         <f>SUMAR.SI.CONJUNTO(Recaudos_SAP!B:B,Recaudos_SAP!A:A,Recaudos_SAP!A5,Recaudos_SAP!G:G,Recaudos_SAP!G:G)-Y5</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="AF5" s="9" t="s">
+      <c r="AF5" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AG5" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AH5" s="12">
         <v>2</v>
       </c>
-      <c r="AI5" s="9">
+      <c r="AI5" s="12">
         <v>30</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AK5" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AN5" s="9">
+      <c r="AN5" s="12">
         <v>1.2019</v>
       </c>
-      <c r="AO5" s="9">
+      <c r="AO5" s="12">
         <v>3000000043393274</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AQ5" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AR5" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="AS5" s="9" t="s">
+      <c r="AS5" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AT5" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AU5" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="9">
+      <c r="AX5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="12">
         <v>21930002</v>
       </c>
-      <c r="BF5" s="9" t="s">
+      <c r="BF5" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="BG5" s="9" t="s">
+      <c r="BG5" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="BH5" s="9">
+      <c r="BH5" s="12">
         <v>9900165842</v>
       </c>
-      <c r="BI5" s="9" t="s">
+      <c r="BI5" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="BK5" s="9">
+      <c r="BK5" s="12">
         <v>2019</v>
       </c>
-      <c r="BL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="9">
+      <c r="BL5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="12">
         <v>2019</v>
       </c>
-      <c r="BP5" s="9" t="s">
+      <c r="BP5" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="BQ5" s="9" t="s">
+      <c r="BQ5" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="BR5" s="9" t="s">
+      <c r="BR5" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="BS5" s="9" t="s">
+      <c r="BS5" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="BT5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="9">
+      <c r="BT5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="12">
         <v>-233265988</v>
       </c>
-      <c r="BV5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9" t="s">
+      <c r="BV5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="CD5" s="8">
+      <c r="CD5" s="11">
         <v>43496</v>
       </c>
-      <c r="CE5" s="9">
-        <v>1</v>
-      </c>
-      <c r="CF5" s="8">
+      <c r="CE5" s="12">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="11">
         <v>43496</v>
       </c>
-      <c r="CG5" s="8">
+      <c r="CG5" s="11">
         <v>43519</v>
       </c>
-      <c r="CH5" s="9" t="s">
+      <c r="CH5" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="CJ5" s="9" t="s">
+      <c r="CJ5" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="CK5" s="9" t="s">
+      <c r="CK5" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="CN5" s="9" t="s">
+      <c r="CN5" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="CV5" s="9">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="9">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="9">
-        <v>0</v>
-      </c>
-      <c r="EY5" s="9" t="s">
+      <c r="CV5" s="12">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="12">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="12">
+        <v>0</v>
+      </c>
+      <c r="EY5" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="EZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="FB5" s="9">
+      <c r="EZ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="12">
         <v>104033382</v>
       </c>
-      <c r="FC5" s="9">
+      <c r="FC5" s="12">
         <v>9900165842</v>
       </c>
-      <c r="FE5" s="8">
+      <c r="FE5" s="11">
         <v>43519</v>
       </c>
-      <c r="FF5" s="9">
-        <v>0</v>
-      </c>
-      <c r="FJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="FK5" s="9">
-        <v>1</v>
-      </c>
-      <c r="FM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="FN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="FQ5" s="9" t="s">
+      <c r="FF5" s="12">
+        <v>0</v>
+      </c>
+      <c r="FJ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="12">
+        <v>1</v>
+      </c>
+      <c r="FM5" s="12">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="12">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="FX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="FY5" s="9">
-        <v>0</v>
-      </c>
-      <c r="FZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="GA5" s="9">
+      <c r="FX5" s="12">
+        <v>0</v>
+      </c>
+      <c r="FY5" s="12">
+        <v>0</v>
+      </c>
+      <c r="FZ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="GA5" s="12">
         <v>233265988</v>
       </c>
-      <c r="GB5" s="9">
+      <c r="GB5" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:184" s="9" customFormat="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:184" s="12" customFormat="1">
+      <c r="A6" s="12">
         <v>4800279271</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="13">
         <v>-233265988</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <v>4800279271</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
         <v>21930002</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="12">
         <v>57</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="12">
         <v>250</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="12">
         <v>13120101</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="12">
         <v>10</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="12">
         <v>9999</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="12">
         <v>9999999992</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="12">
         <v>2019</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="13">
         <f>SUMAR.SI.CONJUNTO(Ingresos_SIGEP!B:B,Ingresos_SIGEP!A:A,Recaudos_SAP!A6,Ingresos_SIGEP!G:G,Recaudos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="13">
         <f>SUMAR.SI.CONJUNTO(Recaudos_SAP!B:B,Recaudos_SAP!A:A,Recaudos_SAP!A6,Recaudos_SAP!G:G,Recaudos_SAP!G:G)-Y6</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AF6" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="AH6" s="9">
+      <c r="AH6" s="12">
         <v>2</v>
       </c>
-      <c r="AI6" s="9">
+      <c r="AI6" s="12">
         <v>30</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AK6" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AN6" s="9">
+      <c r="AN6" s="12">
         <v>1.2019</v>
       </c>
-      <c r="AO6" s="9">
+      <c r="AO6" s="12">
         <v>3000000043395198</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AQ6" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AR6" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AS6" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AT6" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AU6" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="9">
+      <c r="AX6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="12">
         <v>21930002</v>
       </c>
-      <c r="BF6" s="9" t="s">
+      <c r="BF6" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="BG6" s="9" t="s">
+      <c r="BG6" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="BH6" s="9">
+      <c r="BH6" s="12">
         <v>4800279271</v>
       </c>
-      <c r="BI6" s="9" t="s">
+      <c r="BI6" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="BK6" s="9">
+      <c r="BK6" s="12">
         <v>2019</v>
       </c>
-      <c r="BL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="9">
+      <c r="BL6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="12">
         <v>2019</v>
       </c>
-      <c r="BP6" s="9" t="s">
+      <c r="BP6" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="BQ6" s="9" t="s">
+      <c r="BQ6" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="BR6" s="9" t="s">
+      <c r="BR6" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="BS6" s="9" t="s">
+      <c r="BS6" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="BT6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="9">
+      <c r="BT6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="12">
         <v>-233265988</v>
       </c>
-      <c r="BV6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9" t="s">
+      <c r="BV6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="CD6" s="8">
+      <c r="CD6" s="11">
         <v>43496</v>
       </c>
-      <c r="CE6" s="9">
-        <v>1</v>
-      </c>
-      <c r="CF6" s="8">
+      <c r="CE6" s="12">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="11">
         <v>43496</v>
       </c>
-      <c r="CG6" s="8">
+      <c r="CG6" s="11">
         <v>43519</v>
       </c>
-      <c r="CH6" s="9" t="s">
+      <c r="CH6" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="CJ6" s="9" t="s">
+      <c r="CJ6" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="CK6" s="9" t="s">
+      <c r="CK6" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="CN6" s="9" t="s">
+      <c r="CN6" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="CV6" s="9">
-        <v>1</v>
-      </c>
-      <c r="DG6" s="9">
-        <v>0</v>
-      </c>
-      <c r="DH6" s="9">
-        <v>0</v>
-      </c>
-      <c r="EY6" s="9" t="s">
+      <c r="CV6" s="12">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="12">
+        <v>0</v>
+      </c>
+      <c r="EY6" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="EZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="FB6" s="9">
+      <c r="EZ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="12">
         <v>104034030</v>
       </c>
-      <c r="FC6" s="9">
+      <c r="FC6" s="12">
         <v>4800279271</v>
       </c>
-      <c r="FE6" s="8">
+      <c r="FE6" s="11">
         <v>43519</v>
       </c>
-      <c r="FF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="FJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="FK6" s="9">
-        <v>1</v>
-      </c>
-      <c r="FM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="FN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="FQ6" s="9" t="s">
+      <c r="FF6" s="12">
+        <v>0</v>
+      </c>
+      <c r="FJ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="FK6" s="12">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="12">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="12">
+        <v>0</v>
+      </c>
+      <c r="FQ6" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="FX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="FY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="FZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="GA6" s="9">
+      <c r="FX6" s="12">
+        <v>0</v>
+      </c>
+      <c r="FY6" s="12">
+        <v>0</v>
+      </c>
+      <c r="FZ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="GA6" s="12">
         <v>233265988</v>
       </c>
-      <c r="GB6" s="9">
+      <c r="GB6" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:184" s="6" customFormat="1">
-      <c r="A7" s="6">
+    <row r="7" spans="1:184" s="9" customFormat="1">
+      <c r="A7" s="9">
         <v>9900166480</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>233265988</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>9900166480</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <v>21930002</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="9">
         <v>57</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="9">
         <v>250</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="9">
         <v>13120101</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="9">
         <v>10</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="9">
         <v>9999</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="9">
         <v>9999999999</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="9">
         <v>9999999992</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="9">
         <v>2019</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="10">
         <f>SUMAR.SI.CONJUNTO(Ingresos_SIGEP!B:B,Ingresos_SIGEP!A:A,Recaudos_SAP!A7,Ingresos_SIGEP!G:G,Recaudos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="10">
         <f>SUMAR.SI.CONJUNTO(Recaudos_SAP!B:B,Recaudos_SAP!A:A,Recaudos_SAP!A7,Recaudos_SAP!G:G,Recaudos_SAP!G:G)-Y7</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AA7" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AF7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AG7" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AH7" s="9">
         <v>2</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI7" s="9">
         <v>30</v>
       </c>
-      <c r="AK7" s="6" t="s">
+      <c r="AK7" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AN7" s="9">
         <v>1.2019</v>
       </c>
-      <c r="AO7" s="6">
+      <c r="AO7" s="9">
         <v>3000000043397106</v>
       </c>
-      <c r="AQ7" s="6" t="s">
+      <c r="AQ7" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AR7" s="6" t="s">
+      <c r="AR7" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AS7" s="6" t="s">
+      <c r="AS7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AT7" s="6" t="s">
+      <c r="AT7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AU7" s="6" t="s">
+      <c r="AU7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AX7" s="6">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="6">
+      <c r="AX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="9">
         <v>21930002</v>
       </c>
-      <c r="BF7" s="6" t="s">
+      <c r="BF7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="BG7" s="6" t="s">
+      <c r="BG7" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="BH7" s="6">
+      <c r="BH7" s="9">
         <v>9900166480</v>
       </c>
-      <c r="BI7" s="6" t="s">
+      <c r="BI7" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="BK7" s="6">
+      <c r="BK7" s="9">
         <v>2019</v>
       </c>
-      <c r="BL7" s="6">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="6">
+      <c r="BL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="9">
         <v>2019</v>
       </c>
-      <c r="BP7" s="6" t="s">
+      <c r="BP7" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="BQ7" s="6" t="s">
+      <c r="BQ7" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="BR7" s="6" t="s">
+      <c r="BR7" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="BS7" s="6" t="s">
+      <c r="BS7" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="BT7" s="6">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="6">
+      <c r="BT7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="9">
         <v>233265988</v>
       </c>
-      <c r="BV7" s="6">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="6">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="6" t="s">
+      <c r="BV7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="CD7" s="8">
+      <c r="CD7" s="11">
         <v>43496</v>
       </c>
-      <c r="CE7" s="6">
-        <v>1</v>
-      </c>
-      <c r="CF7" s="8">
+      <c r="CE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="11">
         <v>43496</v>
       </c>
-      <c r="CG7" s="8">
+      <c r="CG7" s="11">
         <v>43519</v>
       </c>
-      <c r="CH7" s="6" t="s">
+      <c r="CH7" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="CJ7" s="6" t="s">
+      <c r="CJ7" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="CK7" s="6" t="s">
+      <c r="CK7" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="CN7" s="6" t="s">
+      <c r="CN7" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="CV7" s="6">
-        <v>1</v>
-      </c>
-      <c r="DG7" s="6">
-        <v>0</v>
-      </c>
-      <c r="DH7" s="6">
-        <v>0</v>
-      </c>
-      <c r="EY7" s="6" t="s">
+      <c r="CV7" s="9">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="9">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="EZ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="FB7" s="6">
+      <c r="EZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="9">
         <v>104034666</v>
       </c>
-      <c r="FC7" s="6">
+      <c r="FC7" s="9">
         <v>9900166480</v>
       </c>
-      <c r="FE7" s="8">
+      <c r="FE7" s="11">
         <v>43519</v>
       </c>
-      <c r="FF7" s="6">
-        <v>0</v>
-      </c>
-      <c r="FJ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="FK7" s="6">
-        <v>1</v>
-      </c>
-      <c r="FM7" s="6">
-        <v>0</v>
-      </c>
-      <c r="FN7" s="6">
-        <v>0</v>
-      </c>
-      <c r="FQ7" s="6" t="s">
+      <c r="FF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="9">
+        <v>1</v>
+      </c>
+      <c r="FM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="FX7" s="6">
-        <v>0</v>
-      </c>
-      <c r="FY7" s="6">
-        <v>0</v>
-      </c>
-      <c r="FZ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="GA7" s="6">
+      <c r="FX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="GA7" s="9">
         <v>233265988</v>
       </c>
-      <c r="GB7" s="6">
+      <c r="GB7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:184" s="9" customFormat="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:184" s="12" customFormat="1">
+      <c r="A8" s="12">
         <v>4800279907</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="13">
         <v>-233265988</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="12">
         <v>4800279907</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
         <v>21930002</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="12">
         <v>57</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="12">
         <v>250</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="12">
         <v>13120101</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="12">
         <v>10</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="12">
         <v>9999</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="12">
         <v>9999999999</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="12">
         <v>9999999992</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="12">
         <v>2019</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="13">
         <f>SUMAR.SI.CONJUNTO(Ingresos_SIGEP!B:B,Ingresos_SIGEP!A:A,Recaudos_SAP!A8,Ingresos_SIGEP!G:G,Recaudos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="13">
         <f>SUMAR.SI.CONJUNTO(Recaudos_SAP!B:B,Recaudos_SAP!A:A,Recaudos_SAP!A8,Recaudos_SAP!G:G,Recaudos_SAP!G:G)-Y8</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="AA8" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="AF8" s="9" t="s">
+      <c r="AF8" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="AG8" s="9" t="s">
+      <c r="AG8" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="AH8" s="9">
+      <c r="AH8" s="12">
         <v>2</v>
       </c>
-      <c r="AI8" s="9">
+      <c r="AI8" s="12">
         <v>30</v>
       </c>
-      <c r="AK8" s="9" t="s">
+      <c r="AK8" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AN8" s="9">
+      <c r="AN8" s="12">
         <v>1.2019</v>
       </c>
-      <c r="AO8" s="9">
+      <c r="AO8" s="12">
         <v>3000000043399014</v>
       </c>
-      <c r="AQ8" s="9" t="s">
+      <c r="AQ8" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="AR8" s="9" t="s">
+      <c r="AR8" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="AS8" s="9" t="s">
+      <c r="AS8" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AT8" s="9" t="s">
+      <c r="AT8" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AU8" s="9" t="s">
+      <c r="AU8" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AX8" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="9">
+      <c r="AX8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="12">
         <v>21930002</v>
       </c>
-      <c r="BF8" s="9" t="s">
+      <c r="BF8" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="BG8" s="9" t="s">
+      <c r="BG8" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="BH8" s="9">
+      <c r="BH8" s="12">
         <v>4800279907</v>
       </c>
-      <c r="BI8" s="9" t="s">
+      <c r="BI8" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="BK8" s="9">
+      <c r="BK8" s="12">
         <v>2019</v>
       </c>
-      <c r="BL8" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="9">
+      <c r="BL8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="12">
         <v>2019</v>
       </c>
-      <c r="BP8" s="9" t="s">
+      <c r="BP8" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="BQ8" s="9" t="s">
+      <c r="BQ8" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="BR8" s="9" t="s">
+      <c r="BR8" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="BS8" s="9" t="s">
+      <c r="BS8" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="BT8" s="9">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="9">
+      <c r="BT8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="12">
         <v>-233265988</v>
       </c>
-      <c r="BV8" s="9">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="9">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="9" t="s">
+      <c r="BV8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="CD8" s="8">
+      <c r="CD8" s="11">
         <v>43496</v>
       </c>
-      <c r="CE8" s="9">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="8">
+      <c r="CE8" s="12">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="11">
         <v>43496</v>
       </c>
-      <c r="CG8" s="8">
+      <c r="CG8" s="11">
         <v>43519</v>
       </c>
-      <c r="CH8" s="9" t="s">
+      <c r="CH8" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="CJ8" s="9" t="s">
+      <c r="CJ8" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="CK8" s="9" t="s">
+      <c r="CK8" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="CN8" s="9" t="s">
+      <c r="CN8" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="DG8" s="9">
-        <v>0</v>
-      </c>
-      <c r="DH8" s="9">
-        <v>0</v>
-      </c>
-      <c r="EY8" s="9" t="s">
+      <c r="DG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="12">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="EZ8" s="9">
-        <v>0</v>
-      </c>
-      <c r="FB8" s="9">
+      <c r="EZ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="12">
         <v>104035302</v>
       </c>
-      <c r="FC8" s="9">
+      <c r="FC8" s="12">
         <v>4800279907</v>
       </c>
-      <c r="FE8" s="8">
+      <c r="FE8" s="11">
         <v>43519</v>
       </c>
-      <c r="FF8" s="9">
-        <v>0</v>
-      </c>
-      <c r="FJ8" s="9">
-        <v>0</v>
-      </c>
-      <c r="FK8" s="9">
-        <v>1</v>
-      </c>
-      <c r="FM8" s="9">
-        <v>0</v>
-      </c>
-      <c r="FN8" s="9">
-        <v>0</v>
-      </c>
-      <c r="FX8" s="9">
-        <v>0</v>
-      </c>
-      <c r="FY8" s="9">
-        <v>0</v>
-      </c>
-      <c r="FZ8" s="9">
-        <v>0</v>
-      </c>
-      <c r="GA8" s="9">
+      <c r="FF8" s="12">
+        <v>0</v>
+      </c>
+      <c r="FJ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="12">
+        <v>1</v>
+      </c>
+      <c r="FM8" s="12">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="12">
+        <v>0</v>
+      </c>
+      <c r="FX8" s="12">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="12">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="GA8" s="12">
         <v>233265988</v>
       </c>
-      <c r="GB8" s="9">
+      <c r="GB8" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:184">
-      <c r="B9" s="2">
+      <c r="B9" s="14">
+        <v>-233265988</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM(Y2:Y8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <f>SUM(Z2:Z8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:184">
+      <c r="B10" s="4">
         <f>SUM(B2:B8)</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <f>SUM(Y2:Y8)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <f>SUM(Z2:Z8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3921,60 +4018,60 @@
     <col min="1" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <f>SUM(B2:B1)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <f>SUM(L2:L1)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <f>SUM(M2:M1)</f>
         <v>0</v>
       </c>
@@ -3987,7 +4084,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GC13"/>
+  <dimension ref="A1:GC14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4000,3453 +4097,3458 @@
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:185" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:185" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BA1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BK1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BR1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BS1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BT1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BU1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BV1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BW1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BX1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BY1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CA1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CB1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CC1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CD1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CE1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CF1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CG1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CH1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CI1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CK1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CL1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CM1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CN1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CO1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CP1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="CR1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="5" t="s">
+      <c r="CS1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="5" t="s">
+      <c r="CT1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="5" t="s">
+      <c r="CU1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="5" t="s">
+      <c r="CV1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="5" t="s">
+      <c r="CW1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="5" t="s">
+      <c r="CX1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="5" t="s">
+      <c r="CY1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="5" t="s">
+      <c r="CZ1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="5" t="s">
+      <c r="DA1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="5" t="s">
+      <c r="DB1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="5" t="s">
+      <c r="DC1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="5" t="s">
+      <c r="DD1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="5" t="s">
+      <c r="DE1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="5" t="s">
+      <c r="DF1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DG1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="5" t="s">
+      <c r="DH1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DI1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DJ1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DK1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="5" t="s">
+      <c r="DL1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DM1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="5" t="s">
+      <c r="DN1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="5" t="s">
+      <c r="DO1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="5" t="s">
+      <c r="DP1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="5" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="5" t="s">
+      <c r="DR1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="5" t="s">
+      <c r="DS1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="5" t="s">
+      <c r="DT1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="5" t="s">
+      <c r="DU1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="5" t="s">
+      <c r="DV1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="DW1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="5" t="s">
+      <c r="DX1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="5" t="s">
+      <c r="DY1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="5" t="s">
+      <c r="DZ1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="5" t="s">
+      <c r="EA1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="5" t="s">
+      <c r="EB1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="EC1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="5" t="s">
+      <c r="ED1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="5" t="s">
+      <c r="EE1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="5" t="s">
+      <c r="EF1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="5" t="s">
+      <c r="EG1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="5" t="s">
+      <c r="EH1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="5" t="s">
+      <c r="EI1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="5" t="s">
+      <c r="EJ1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="5" t="s">
+      <c r="EK1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="5" t="s">
+      <c r="EL1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="5" t="s">
+      <c r="EM1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="5" t="s">
+      <c r="EN1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="5" t="s">
+      <c r="EO1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="5" t="s">
+      <c r="EP1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="5" t="s">
+      <c r="EQ1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="5" t="s">
+      <c r="ER1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="5" t="s">
+      <c r="ES1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="5" t="s">
+      <c r="ET1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="5" t="s">
+      <c r="EU1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="5" t="s">
+      <c r="EV1" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="5" t="s">
+      <c r="EW1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="5" t="s">
+      <c r="EX1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="5" t="s">
+      <c r="EY1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="5" t="s">
+      <c r="EZ1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="5" t="s">
+      <c r="FA1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="5" t="s">
+      <c r="FB1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="5" t="s">
+      <c r="FC1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="5" t="s">
+      <c r="FD1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="5" t="s">
+      <c r="FE1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="5" t="s">
+      <c r="FF1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="5" t="s">
+      <c r="FG1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="5" t="s">
+      <c r="FH1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="5" t="s">
+      <c r="FI1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="5" t="s">
+      <c r="FJ1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="5" t="s">
+      <c r="FK1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="5" t="s">
+      <c r="FL1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="5" t="s">
+      <c r="FM1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="5" t="s">
+      <c r="FN1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="5" t="s">
+      <c r="FO1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="5" t="s">
+      <c r="FP1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="5" t="s">
+      <c r="FQ1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="5" t="s">
+      <c r="FR1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="5" t="s">
+      <c r="FS1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="5" t="s">
+      <c r="FT1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="5" t="s">
+      <c r="FU1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="5" t="s">
+      <c r="FV1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="5" t="s">
+      <c r="FW1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="5" t="s">
+      <c r="FX1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="5" t="s">
+      <c r="FY1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="5" t="s">
+      <c r="FZ1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="5" t="s">
+      <c r="GA1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="5" t="s">
+      <c r="GB1" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="GC1" s="5" t="s">
+      <c r="GC1" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:185" s="4" customFormat="1">
-      <c r="A2" s="4">
+    <row r="2" spans="1:185" s="7" customFormat="1">
+      <c r="A2" s="7">
         <v>2000477481</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="15">
         <v>106904</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>2600135027</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
         <v>2600135027</v>
       </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
         <v>21930002</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="7">
         <v>57</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="7">
         <v>250</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="7">
         <v>21220801</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="7">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="7">
         <v>7208020712</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="7">
         <v>2019</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A2,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A2,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y2</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A2,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="7">
         <v>3</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="7">
         <v>30</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AN2" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="7">
         <v>3000000042987549</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AS2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AX2" s="7">
         <v>110</v>
       </c>
-      <c r="AZ2" s="4">
+      <c r="AZ2" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BA2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE2" s="4">
+      <c r="BE2" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BG2" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="BH2" s="4">
+      <c r="BH2" s="7">
         <v>2600135027</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK2" s="4">
+      <c r="BK2" s="7">
         <v>2019</v>
       </c>
-      <c r="BL2" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="4">
+      <c r="BL2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="7">
         <v>2019</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BP2" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BR2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS2" s="4" t="s">
+      <c r="BS2" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT2" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="4">
+      <c r="BT2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="7">
         <v>106904</v>
       </c>
-      <c r="BV2" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="4">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="4" t="s">
+      <c r="BV2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="7">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="CD2" s="8">
+      <c r="CD2" s="11">
         <v>43496</v>
       </c>
-      <c r="CE2" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF2" s="8">
+      <c r="CE2" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF2" s="11">
         <v>43496</v>
       </c>
-      <c r="CG2" s="8">
+      <c r="CG2" s="11">
         <v>43503</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CH2" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="CJ2" s="4" t="s">
+      <c r="CJ2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CN2" s="4" t="s">
+      <c r="CN2" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="DG2" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH2" s="4">
-        <v>0</v>
-      </c>
-      <c r="EY2" s="4" t="s">
+      <c r="DG2" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ2" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB2" s="4">
+      <c r="EZ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="7">
         <v>103988384</v>
       </c>
-      <c r="FC2" s="4">
+      <c r="FC2" s="7">
         <v>2600135027</v>
       </c>
-      <c r="FE2" s="8">
+      <c r="FE2" s="11">
         <v>43503</v>
       </c>
-      <c r="FF2" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ2" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK2" s="4">
-        <v>1</v>
-      </c>
-      <c r="FM2" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN2" s="4">
-        <v>0</v>
-      </c>
-      <c r="FX2" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY2" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ2" s="4">
+      <c r="FF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK2" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN2" s="7">
+        <v>0</v>
+      </c>
+      <c r="FX2" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY2" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="7">
         <v>106904</v>
       </c>
-      <c r="GA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB2" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC2" s="4">
+      <c r="GA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:185" s="4" customFormat="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:185" s="7" customFormat="1">
+      <c r="A3" s="7">
         <v>2000477483</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="15">
         <v>46480</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>2600135029</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
         <v>2600135029</v>
       </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
         <v>21930002</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="7">
         <v>57</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="7">
         <v>250</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="7">
         <v>21220801</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="7">
         <v>10</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="7">
         <v>7208020712</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="7">
         <v>2019</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A3,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A3,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y3</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A3,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="7">
         <v>3</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="7">
         <v>30</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AN3" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AO3" s="7">
         <v>3000000042987557</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AX3" s="4">
+      <c r="AX3" s="7">
         <v>110</v>
       </c>
-      <c r="AZ3" s="4">
+      <c r="AZ3" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE3" s="4">
+      <c r="BE3" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="BH3" s="4">
+      <c r="BH3" s="7">
         <v>2600135029</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BI3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK3" s="4">
+      <c r="BK3" s="7">
         <v>2019</v>
       </c>
-      <c r="BL3" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="4">
+      <c r="BL3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="7">
         <v>2019</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BP3" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BQ3" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BR3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BS3" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT3" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="4">
+      <c r="BT3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="7">
         <v>46480</v>
       </c>
-      <c r="BV3" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="4">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="4" t="s">
+      <c r="BV3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="7">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="CD3" s="8">
+      <c r="CD3" s="11">
         <v>43496</v>
       </c>
-      <c r="CE3" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF3" s="8">
+      <c r="CE3" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="11">
         <v>43496</v>
       </c>
-      <c r="CG3" s="8">
+      <c r="CG3" s="11">
         <v>43503</v>
       </c>
-      <c r="CH3" s="4" t="s">
+      <c r="CH3" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="CJ3" s="4" t="s">
+      <c r="CJ3" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CN3" s="4" t="s">
+      <c r="CN3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="DG3" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH3" s="4">
-        <v>0</v>
-      </c>
-      <c r="EY3" s="4" t="s">
+      <c r="DG3" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="7">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ3" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB3" s="4">
+      <c r="EZ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="7">
         <v>103988386</v>
       </c>
-      <c r="FC3" s="4">
+      <c r="FC3" s="7">
         <v>2600135029</v>
       </c>
-      <c r="FE3" s="8">
+      <c r="FE3" s="11">
         <v>43503</v>
       </c>
-      <c r="FF3" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ3" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK3" s="4">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN3" s="4">
-        <v>0</v>
-      </c>
-      <c r="FX3" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY3" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ3" s="4">
+      <c r="FF3" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK3" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN3" s="7">
+        <v>0</v>
+      </c>
+      <c r="FX3" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY3" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="7">
         <v>46480</v>
       </c>
-      <c r="GA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB3" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC3" s="4">
+      <c r="GA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:185" s="4" customFormat="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:185" s="7" customFormat="1">
+      <c r="A4" s="7">
         <v>2000395353</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="15">
         <v>787500</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>2500131080</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
         <v>2500131080</v>
       </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
         <v>21930002</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="7">
         <v>57</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="7">
         <v>250</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="7">
         <v>21170201</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="7">
         <v>10</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="7">
         <v>7221020103</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="7">
         <v>2019</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A4,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A4,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y4</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A4,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AH4" s="7">
         <v>3</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="7">
         <v>30</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AK4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AN4" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="7">
         <v>3000000042797681</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AQ4" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR4" s="4" t="s">
+      <c r="AR4" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="AS4" s="4" t="s">
+      <c r="AS4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AT4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AU4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AV4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AX4" s="4">
+      <c r="AX4" s="7">
         <v>110</v>
       </c>
-      <c r="AZ4" s="4">
+      <c r="AZ4" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA4" s="4" t="s">
+      <c r="BA4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE4" s="4">
+      <c r="BE4" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BF4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BG4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="BH4" s="4">
+      <c r="BH4" s="7">
         <v>2500131080</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BI4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK4" s="4">
+      <c r="BK4" s="7">
         <v>2019</v>
       </c>
-      <c r="BL4" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="4">
+      <c r="BL4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="7">
         <v>2019</v>
       </c>
-      <c r="BP4" s="4" t="s">
+      <c r="BP4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ4" s="4" t="s">
+      <c r="BQ4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR4" s="4" t="s">
+      <c r="BR4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS4" s="4" t="s">
+      <c r="BS4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT4" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="4">
+      <c r="BT4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="7">
         <v>787500</v>
       </c>
-      <c r="BV4" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="4">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="4" t="s">
+      <c r="BV4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="7">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="CD4" s="8">
+      <c r="CD4" s="11">
         <v>43496</v>
       </c>
-      <c r="CE4" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF4" s="8">
+      <c r="CE4" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="11">
         <v>43496</v>
       </c>
-      <c r="CG4" s="8">
+      <c r="CG4" s="11">
         <v>43495</v>
       </c>
-      <c r="CH4" s="4" t="s">
+      <c r="CH4" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="CJ4" s="4" t="s">
+      <c r="CJ4" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CN4" s="4" t="s">
+      <c r="CN4" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="DG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="4">
-        <v>0</v>
-      </c>
-      <c r="EY4" s="4" t="s">
+      <c r="DG4" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="7">
+        <v>0</v>
+      </c>
+      <c r="EY4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB4" s="4">
+      <c r="EZ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB4" s="7">
         <v>103974342</v>
       </c>
-      <c r="FC4" s="4">
+      <c r="FC4" s="7">
         <v>2500131080</v>
       </c>
-      <c r="FE4" s="8">
+      <c r="FE4" s="11">
         <v>43495</v>
       </c>
-      <c r="FF4" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK4" s="4">
-        <v>1</v>
-      </c>
-      <c r="FM4" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN4" s="4">
-        <v>0</v>
-      </c>
-      <c r="FX4" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY4" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ4" s="4">
+      <c r="FF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM4" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN4" s="7">
+        <v>0</v>
+      </c>
+      <c r="FX4" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY4" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="7">
         <v>787500</v>
       </c>
-      <c r="GA4" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB4" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC4" s="4">
+      <c r="GA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:185" s="4" customFormat="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:185" s="7" customFormat="1">
+      <c r="A5" s="7">
         <v>2000457773</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="15">
         <v>7777776</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>2500131546</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
         <v>2500131546</v>
       </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
         <v>21930002</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="7">
         <v>57</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="7">
         <v>250</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="7">
         <v>21170201</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="7">
         <v>10</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="7">
         <v>7221020103</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="7">
         <v>2019</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A5,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A5,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y5</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A5,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="7">
         <v>3</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="7">
         <v>30</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN5" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AO5" s="7">
         <v>3000000042799764</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AQ5" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AR5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="AS5" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AT5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU5" s="4" t="s">
+      <c r="AU5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="AV5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AX5" s="4">
+      <c r="AX5" s="7">
         <v>110</v>
       </c>
-      <c r="AZ5" s="4">
+      <c r="AZ5" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="BA5" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE5" s="4">
+      <c r="BE5" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF5" s="4" t="s">
+      <c r="BF5" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG5" s="4" t="s">
+      <c r="BG5" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="BH5" s="4">
+      <c r="BH5" s="7">
         <v>2500131546</v>
       </c>
-      <c r="BI5" s="4" t="s">
+      <c r="BI5" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK5" s="4">
+      <c r="BK5" s="7">
         <v>2019</v>
       </c>
-      <c r="BL5" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="4">
+      <c r="BL5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="7">
         <v>2019</v>
       </c>
-      <c r="BP5" s="4" t="s">
+      <c r="BP5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ5" s="4" t="s">
+      <c r="BQ5" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR5" s="4" t="s">
+      <c r="BR5" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS5" s="4" t="s">
+      <c r="BS5" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT5" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="4">
+      <c r="BT5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="7">
         <v>7777776</v>
       </c>
-      <c r="BV5" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="4">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="4" t="s">
+      <c r="BV5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="7">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="CD5" s="8">
+      <c r="CD5" s="11">
         <v>43496</v>
       </c>
-      <c r="CE5" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF5" s="8">
+      <c r="CE5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="11">
         <v>43496</v>
       </c>
-      <c r="CG5" s="8">
+      <c r="CG5" s="11">
         <v>43495</v>
       </c>
-      <c r="CH5" s="4" t="s">
+      <c r="CH5" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="CJ5" s="4" t="s">
+      <c r="CJ5" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CN5" s="4" t="s">
+      <c r="CN5" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="DG5" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="4">
-        <v>0</v>
-      </c>
-      <c r="EY5" s="4" t="s">
+      <c r="DG5" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="7">
+        <v>0</v>
+      </c>
+      <c r="EY5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB5" s="4">
+      <c r="EZ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB5" s="7">
         <v>103974810</v>
       </c>
-      <c r="FC5" s="4">
+      <c r="FC5" s="7">
         <v>2500131546</v>
       </c>
-      <c r="FE5" s="8">
+      <c r="FE5" s="11">
         <v>43495</v>
       </c>
-      <c r="FF5" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK5" s="4">
-        <v>1</v>
-      </c>
-      <c r="FM5" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN5" s="4">
-        <v>0</v>
-      </c>
-      <c r="FX5" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY5" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ5" s="4">
+      <c r="FF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM5" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN5" s="7">
+        <v>0</v>
+      </c>
+      <c r="FX5" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY5" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ5" s="7">
         <v>7777776</v>
       </c>
-      <c r="GA5" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB5" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC5" s="4">
+      <c r="GA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:185" s="4" customFormat="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:185" s="7" customFormat="1">
+      <c r="A6" s="7">
         <v>2000366438</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="15">
         <v>184432</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>2700010572</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
         <v>2700010572</v>
       </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
         <v>21930002</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="7">
         <v>57</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="7">
         <v>250</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="7">
         <v>21220802</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="7">
         <v>10</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="7">
         <v>7208020702</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="7">
         <v>2019</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A6,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A6,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y6</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A6,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AF6" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AG6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="7">
         <v>3</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI6" s="7">
         <v>30</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AK6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN6" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO6" s="7">
         <v>3000000042788670</v>
       </c>
-      <c r="AQ6" s="4" t="s">
+      <c r="AQ6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR6" s="4" t="s">
+      <c r="AR6" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="AS6" s="4" t="s">
+      <c r="AS6" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AT6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU6" s="4" t="s">
+      <c r="AU6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AV6" s="4" t="s">
+      <c r="AV6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AX6" s="7">
         <v>110</v>
       </c>
-      <c r="AZ6" s="4">
+      <c r="AZ6" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA6" s="4" t="s">
+      <c r="BA6" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE6" s="4">
+      <c r="BE6" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF6" s="4" t="s">
+      <c r="BF6" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG6" s="4" t="s">
+      <c r="BG6" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="BH6" s="4">
+      <c r="BH6" s="7">
         <v>2700010572</v>
       </c>
-      <c r="BI6" s="4" t="s">
+      <c r="BI6" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK6" s="4">
+      <c r="BK6" s="7">
         <v>2019</v>
       </c>
-      <c r="BL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="4">
+      <c r="BL6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="7">
         <v>2019</v>
       </c>
-      <c r="BP6" s="4" t="s">
+      <c r="BP6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ6" s="4" t="s">
+      <c r="BQ6" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR6" s="4" t="s">
+      <c r="BR6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS6" s="4" t="s">
+      <c r="BS6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT6" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="4">
+      <c r="BT6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="7">
         <v>184432</v>
       </c>
-      <c r="BV6" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="4">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="4" t="s">
+      <c r="BV6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="7">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="CD6" s="8">
+      <c r="CD6" s="11">
         <v>43496</v>
       </c>
-      <c r="CE6" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF6" s="8">
+      <c r="CE6" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="11">
         <v>43496</v>
       </c>
-      <c r="CG6" s="8">
+      <c r="CG6" s="11">
         <v>43494</v>
       </c>
-      <c r="CH6" s="4" t="s">
+      <c r="CH6" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="CJ6" s="4" t="s">
+      <c r="CJ6" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CN6" s="4" t="s">
+      <c r="CN6" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="DG6" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="EY6" s="4" t="s">
+      <c r="DG6" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="7">
+        <v>0</v>
+      </c>
+      <c r="EY6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB6" s="4">
+      <c r="EZ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="7">
         <v>103973921</v>
       </c>
-      <c r="FC6" s="4">
+      <c r="FC6" s="7">
         <v>2700010572</v>
       </c>
-      <c r="FE6" s="8">
+      <c r="FE6" s="11">
         <v>43494</v>
       </c>
-      <c r="FF6" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK6" s="4">
-        <v>1</v>
-      </c>
-      <c r="FM6" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN6" s="4">
-        <v>0</v>
-      </c>
-      <c r="FX6" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY6" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ6" s="4">
+      <c r="FF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK6" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="7">
+        <v>0</v>
+      </c>
+      <c r="FX6" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY6" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ6" s="7">
         <v>184432</v>
       </c>
-      <c r="GA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB6" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC6" s="4">
+      <c r="GA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:185" s="4" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:185" s="7" customFormat="1">
+      <c r="A7" s="7">
         <v>2000399447</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="15">
         <v>185000</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>2700010692</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
         <v>2700010692</v>
       </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
         <v>21930002</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="7">
         <v>57</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="7">
         <v>250</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="7">
         <v>21220802</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="7">
         <v>10</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="7">
         <v>7208020702</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="7">
         <v>2019</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A7,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A7,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y7</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A7,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AF7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AG7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="7">
         <v>3</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AI7" s="7">
         <v>30</v>
       </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AK7" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AO7" s="7">
         <v>3000000042789369</v>
       </c>
-      <c r="AQ7" s="4" t="s">
+      <c r="AQ7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR7" s="4" t="s">
+      <c r="AR7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="AS7" s="4" t="s">
+      <c r="AS7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AT7" s="4" t="s">
+      <c r="AT7" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU7" s="4" t="s">
+      <c r="AU7" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AV7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AX7" s="4">
+      <c r="AX7" s="7">
         <v>110</v>
       </c>
-      <c r="AZ7" s="4">
+      <c r="AZ7" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA7" s="4" t="s">
+      <c r="BA7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE7" s="4">
+      <c r="BE7" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF7" s="4" t="s">
+      <c r="BF7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG7" s="4" t="s">
+      <c r="BG7" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="BH7" s="4">
+      <c r="BH7" s="7">
         <v>2700010692</v>
       </c>
-      <c r="BI7" s="4" t="s">
+      <c r="BI7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK7" s="4">
+      <c r="BK7" s="7">
         <v>2019</v>
       </c>
-      <c r="BL7" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="4">
+      <c r="BL7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="7">
         <v>2019</v>
       </c>
-      <c r="BP7" s="4" t="s">
+      <c r="BP7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ7" s="4" t="s">
+      <c r="BQ7" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR7" s="4" t="s">
+      <c r="BR7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS7" s="4" t="s">
+      <c r="BS7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT7" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="4">
+      <c r="BT7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="7">
         <v>185000</v>
       </c>
-      <c r="BV7" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="4">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="4" t="s">
+      <c r="BV7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="7">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="CD7" s="8">
+      <c r="CD7" s="11">
         <v>43496</v>
       </c>
-      <c r="CE7" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF7" s="8">
+      <c r="CE7" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="11">
         <v>43496</v>
       </c>
-      <c r="CG7" s="8">
+      <c r="CG7" s="11">
         <v>43494</v>
       </c>
-      <c r="CH7" s="4" t="s">
+      <c r="CH7" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="CJ7" s="4" t="s">
+      <c r="CJ7" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CN7" s="4" t="s">
+      <c r="CN7" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="DG7" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH7" s="4">
-        <v>0</v>
-      </c>
-      <c r="EY7" s="4" t="s">
+      <c r="DG7" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="7">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ7" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB7" s="4">
+      <c r="EZ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="7">
         <v>103974042</v>
       </c>
-      <c r="FC7" s="4">
+      <c r="FC7" s="7">
         <v>2700010692</v>
       </c>
-      <c r="FE7" s="8">
+      <c r="FE7" s="11">
         <v>43494</v>
       </c>
-      <c r="FF7" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ7" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK7" s="4">
-        <v>1</v>
-      </c>
-      <c r="FM7" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN7" s="4">
-        <v>0</v>
-      </c>
-      <c r="FX7" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY7" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ7" s="4">
+      <c r="FF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN7" s="7">
+        <v>0</v>
+      </c>
+      <c r="FX7" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="7">
         <v>185000</v>
       </c>
-      <c r="GA7" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB7" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC7" s="4">
+      <c r="GA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:185" s="4" customFormat="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:185" s="7" customFormat="1">
+      <c r="A8" s="7">
         <v>2000462815</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="15">
         <v>737720</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>2700010722</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
         <v>2700010722</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
         <v>21930002</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="7">
         <v>57</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="7">
         <v>250</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="7">
         <v>21220802</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="7">
         <v>10</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="7">
         <v>7208020702</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="7">
         <v>2019</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A8,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A8,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y8</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A8,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AF8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AG8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AH8" s="7">
         <v>3</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AI8" s="7">
         <v>30</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AK8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AN8" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AO8" s="7">
         <v>3000000042789555</v>
       </c>
-      <c r="AQ8" s="4" t="s">
+      <c r="AQ8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR8" s="4" t="s">
+      <c r="AR8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="AS8" s="4" t="s">
+      <c r="AS8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AT8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU8" s="4" t="s">
+      <c r="AU8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AV8" s="4" t="s">
+      <c r="AV8" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AX8" s="4">
+      <c r="AX8" s="7">
         <v>110</v>
       </c>
-      <c r="AZ8" s="4">
+      <c r="AZ8" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA8" s="4" t="s">
+      <c r="BA8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE8" s="4">
+      <c r="BE8" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF8" s="4" t="s">
+      <c r="BF8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG8" s="4" t="s">
+      <c r="BG8" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="BH8" s="4">
+      <c r="BH8" s="7">
         <v>2700010722</v>
       </c>
-      <c r="BI8" s="4" t="s">
+      <c r="BI8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK8" s="4">
+      <c r="BK8" s="7">
         <v>2019</v>
       </c>
-      <c r="BL8" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="4">
+      <c r="BL8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="7">
         <v>2019</v>
       </c>
-      <c r="BP8" s="4" t="s">
+      <c r="BP8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ8" s="4" t="s">
+      <c r="BQ8" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR8" s="4" t="s">
+      <c r="BR8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS8" s="4" t="s">
+      <c r="BS8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT8" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="4">
+      <c r="BT8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="7">
         <v>737720</v>
       </c>
-      <c r="BV8" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="4">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="4" t="s">
+      <c r="BV8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="7">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="CD8" s="8">
+      <c r="CD8" s="11">
         <v>43496</v>
       </c>
-      <c r="CE8" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="8">
+      <c r="CE8" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="11">
         <v>43496</v>
       </c>
-      <c r="CG8" s="8">
+      <c r="CG8" s="11">
         <v>43494</v>
       </c>
-      <c r="CH8" s="4" t="s">
+      <c r="CH8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="CJ8" s="4" t="s">
+      <c r="CJ8" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CN8" s="4" t="s">
+      <c r="CN8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="DG8" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH8" s="4">
-        <v>0</v>
-      </c>
-      <c r="EY8" s="4" t="s">
+      <c r="DG8" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="7">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ8" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB8" s="4">
+      <c r="EZ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="7">
         <v>103974073</v>
       </c>
-      <c r="FC8" s="4">
+      <c r="FC8" s="7">
         <v>2700010722</v>
       </c>
-      <c r="FE8" s="8">
+      <c r="FE8" s="11">
         <v>43494</v>
       </c>
-      <c r="FF8" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ8" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK8" s="4">
-        <v>1</v>
-      </c>
-      <c r="FM8" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN8" s="4">
-        <v>0</v>
-      </c>
-      <c r="FX8" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY8" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ8" s="4">
+      <c r="FF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM8" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="7">
+        <v>0</v>
+      </c>
+      <c r="FX8" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="7">
         <v>737720</v>
       </c>
-      <c r="GA8" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB8" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC8" s="4">
+      <c r="GA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:185" s="4" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:185" s="7" customFormat="1">
+      <c r="A9" s="7">
         <v>2000468121</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="15">
         <v>390620</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>2700010725</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
         <v>2700010725</v>
       </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
         <v>21930002</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="7">
         <v>57</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="7">
         <v>250</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="7">
         <v>21220802</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="7">
         <v>10</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="7">
         <v>7208020702</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="7">
         <v>2019</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A9,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A9,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y9</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A9,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="4" t="s">
+      <c r="AF9" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG9" s="4" t="s">
+      <c r="AG9" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AH9" s="7">
         <v>3</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AI9" s="7">
         <v>30</v>
       </c>
-      <c r="AK9" s="4" t="s">
+      <c r="AK9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AN9" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="AO9" s="7">
         <v>3000000042789579</v>
       </c>
-      <c r="AQ9" s="4" t="s">
+      <c r="AQ9" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR9" s="4" t="s">
+      <c r="AR9" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AS9" s="4" t="s">
+      <c r="AS9" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AT9" s="4" t="s">
+      <c r="AT9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU9" s="4" t="s">
+      <c r="AU9" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AV9" s="4" t="s">
+      <c r="AV9" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AX9" s="4">
+      <c r="AX9" s="7">
         <v>110</v>
       </c>
-      <c r="AZ9" s="4">
+      <c r="AZ9" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA9" s="4" t="s">
+      <c r="BA9" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE9" s="4">
+      <c r="BE9" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF9" s="4" t="s">
+      <c r="BF9" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG9" s="4" t="s">
+      <c r="BG9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="BH9" s="4">
+      <c r="BH9" s="7">
         <v>2700010725</v>
       </c>
-      <c r="BI9" s="4" t="s">
+      <c r="BI9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK9" s="4">
+      <c r="BK9" s="7">
         <v>2019</v>
       </c>
-      <c r="BL9" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="4">
+      <c r="BL9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="7">
         <v>2019</v>
       </c>
-      <c r="BP9" s="4" t="s">
+      <c r="BP9" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ9" s="4" t="s">
+      <c r="BQ9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR9" s="4" t="s">
+      <c r="BR9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS9" s="4" t="s">
+      <c r="BS9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT9" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="4">
+      <c r="BT9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="7">
         <v>390620</v>
       </c>
-      <c r="BV9" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="4">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="4" t="s">
+      <c r="BV9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="7">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="CD9" s="8">
+      <c r="CD9" s="11">
         <v>43496</v>
       </c>
-      <c r="CE9" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF9" s="8">
+      <c r="CE9" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="11">
         <v>43496</v>
       </c>
-      <c r="CG9" s="8">
+      <c r="CG9" s="11">
         <v>43494</v>
       </c>
-      <c r="CH9" s="4" t="s">
+      <c r="CH9" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="CJ9" s="4" t="s">
+      <c r="CJ9" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CN9" s="4" t="s">
+      <c r="CN9" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="DG9" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH9" s="4">
-        <v>0</v>
-      </c>
-      <c r="EY9" s="4" t="s">
+      <c r="DG9" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="7">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ9" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB9" s="4">
+      <c r="EZ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="7">
         <v>103974076</v>
       </c>
-      <c r="FC9" s="4">
+      <c r="FC9" s="7">
         <v>2700010725</v>
       </c>
-      <c r="FE9" s="8">
+      <c r="FE9" s="11">
         <v>43494</v>
       </c>
-      <c r="FF9" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ9" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK9" s="4">
-        <v>1</v>
-      </c>
-      <c r="FM9" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN9" s="4">
-        <v>0</v>
-      </c>
-      <c r="FX9" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY9" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ9" s="4">
+      <c r="FF9" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM9" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="7">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY9" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="7">
         <v>390620</v>
       </c>
-      <c r="GA9" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB9" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC9" s="4">
+      <c r="GA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:185" s="4" customFormat="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:185" s="7" customFormat="1">
+      <c r="A10" s="7">
         <v>2000468122</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="15">
         <v>390620</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>2700010726</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
         <v>2700010726</v>
       </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
         <v>21930002</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="7">
         <v>57</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="7">
         <v>250</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="7">
         <v>21220802</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="7">
         <v>10</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="7">
         <v>7208020702</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="7">
         <v>2019</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A10,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A10,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y10</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A10,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AF10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AG10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH10" s="7">
         <v>3</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AI10" s="7">
         <v>30</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AK10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN10" s="4">
+      <c r="AN10" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AO10" s="7">
         <v>3000000042789586</v>
       </c>
-      <c r="AQ10" s="4" t="s">
+      <c r="AQ10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR10" s="4" t="s">
+      <c r="AR10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="AS10" s="4" t="s">
+      <c r="AS10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AT10" s="4" t="s">
+      <c r="AT10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU10" s="4" t="s">
+      <c r="AU10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AV10" s="4" t="s">
+      <c r="AV10" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AX10" s="4">
+      <c r="AX10" s="7">
         <v>110</v>
       </c>
-      <c r="AZ10" s="4">
+      <c r="AZ10" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA10" s="4" t="s">
+      <c r="BA10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE10" s="4">
+      <c r="BE10" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF10" s="4" t="s">
+      <c r="BF10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG10" s="4" t="s">
+      <c r="BG10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="BH10" s="4">
+      <c r="BH10" s="7">
         <v>2700010726</v>
       </c>
-      <c r="BI10" s="4" t="s">
+      <c r="BI10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK10" s="4">
+      <c r="BK10" s="7">
         <v>2019</v>
       </c>
-      <c r="BL10" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="4">
+      <c r="BL10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="7">
         <v>2019</v>
       </c>
-      <c r="BP10" s="4" t="s">
+      <c r="BP10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ10" s="4" t="s">
+      <c r="BQ10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR10" s="4" t="s">
+      <c r="BR10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS10" s="4" t="s">
+      <c r="BS10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT10" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU10" s="4">
+      <c r="BT10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="7">
         <v>390620</v>
       </c>
-      <c r="BV10" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="4">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="4" t="s">
+      <c r="BV10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="7">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="CD10" s="8">
+      <c r="CD10" s="11">
         <v>43496</v>
       </c>
-      <c r="CE10" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF10" s="8">
+      <c r="CE10" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF10" s="11">
         <v>43496</v>
       </c>
-      <c r="CG10" s="8">
+      <c r="CG10" s="11">
         <v>43494</v>
       </c>
-      <c r="CH10" s="4" t="s">
+      <c r="CH10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="CJ10" s="4" t="s">
+      <c r="CJ10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="CN10" s="4" t="s">
+      <c r="CN10" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="DG10" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH10" s="4">
-        <v>0</v>
-      </c>
-      <c r="EY10" s="4" t="s">
+      <c r="DG10" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="7">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ10" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB10" s="4">
+      <c r="EZ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="7">
         <v>103974077</v>
       </c>
-      <c r="FC10" s="4">
+      <c r="FC10" s="7">
         <v>2700010726</v>
       </c>
-      <c r="FE10" s="8">
+      <c r="FE10" s="11">
         <v>43494</v>
       </c>
-      <c r="FF10" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ10" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK10" s="4">
-        <v>1</v>
-      </c>
-      <c r="FM10" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN10" s="4">
-        <v>0</v>
-      </c>
-      <c r="FX10" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY10" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ10" s="4">
+      <c r="FF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FX10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ10" s="7">
         <v>390620</v>
       </c>
-      <c r="GA10" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB10" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC10" s="4">
+      <c r="GA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:185" s="4" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:185" s="7" customFormat="1">
+      <c r="A11" s="7">
         <v>2000419112</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="15">
         <v>1378908</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>1400219670</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
         <v>7100280625</v>
       </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
         <v>21930002</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="7">
         <v>57</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="7">
         <v>250</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="7">
         <v>21450104</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="7">
         <v>10</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="7">
         <v>2001507</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="7">
         <v>7208020703</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="7">
         <v>2019</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A11,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A11,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y11</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A11,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="4" t="s">
+      <c r="AF11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG11" s="4" t="s">
+      <c r="AG11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AH11" s="7">
         <v>3</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AI11" s="7">
         <v>30</v>
       </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AK11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN11" s="4">
+      <c r="AN11" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO11" s="4">
+      <c r="AO11" s="7">
         <v>3000000042824474</v>
       </c>
-      <c r="AQ11" s="4" t="s">
+      <c r="AQ11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR11" s="4" t="s">
+      <c r="AR11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AS11" s="4" t="s">
+      <c r="AS11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AT11" s="4" t="s">
+      <c r="AT11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU11" s="4" t="s">
+      <c r="AU11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AV11" s="4" t="s">
+      <c r="AV11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AX11" s="4">
+      <c r="AX11" s="7">
         <v>110</v>
       </c>
-      <c r="AZ11" s="4">
+      <c r="AZ11" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA11" s="4" t="s">
+      <c r="BA11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE11" s="4">
+      <c r="BE11" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF11" s="4" t="s">
+      <c r="BF11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG11" s="4" t="s">
+      <c r="BG11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="BH11" s="4">
+      <c r="BH11" s="7">
         <v>1400219670</v>
       </c>
-      <c r="BI11" s="4" t="s">
+      <c r="BI11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK11" s="4">
+      <c r="BK11" s="7">
         <v>2019</v>
       </c>
-      <c r="BL11" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="4">
+      <c r="BL11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="7">
         <v>2019</v>
       </c>
-      <c r="BP11" s="4" t="s">
+      <c r="BP11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ11" s="4" t="s">
+      <c r="BQ11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR11" s="4" t="s">
+      <c r="BR11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS11" s="4" t="s">
+      <c r="BS11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT11" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="4">
+      <c r="BT11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="7">
         <v>1378908</v>
       </c>
-      <c r="BV11" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="4">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="4">
+      <c r="BV11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="7">
         <v>1036397889</v>
       </c>
-      <c r="BZ11" s="4">
+      <c r="BZ11" s="7">
         <v>1036397889</v>
       </c>
-      <c r="CC11" s="4" t="s">
+      <c r="CC11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="CD11" s="8">
+      <c r="CD11" s="11">
         <v>43494</v>
       </c>
-      <c r="CE11" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF11" s="8">
+      <c r="CE11" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF11" s="11">
         <v>43495</v>
       </c>
-      <c r="CG11" s="8">
+      <c r="CG11" s="11">
         <v>43495</v>
       </c>
-      <c r="CH11" s="4" t="s">
+      <c r="CH11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="CI11" s="8">
+      <c r="CI11" s="11">
         <v>43496</v>
       </c>
-      <c r="CJ11" s="4" t="s">
+      <c r="CJ11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="CK11" s="4" t="s">
+      <c r="CK11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="CN11" s="4" t="s">
+      <c r="CN11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="DG11" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH11" s="4">
-        <v>0</v>
-      </c>
-      <c r="DQ11" s="8">
+      <c r="DG11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="11">
         <v>43465</v>
       </c>
-      <c r="DX11" s="4" t="s">
+      <c r="DX11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="EA11" s="4" t="s">
+      <c r="EA11" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="EB11" s="4" t="s">
+      <c r="EB11" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="ED11" s="4" t="s">
+      <c r="ED11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="EF11" s="4">
+      <c r="EF11" s="7">
         <v>7</v>
       </c>
-      <c r="EG11" s="4" t="s">
+      <c r="EG11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="EH11" s="4">
+      <c r="EH11" s="7">
         <v>5</v>
       </c>
-      <c r="EI11" s="4">
+      <c r="EI11" s="7">
         <v>31192320596</v>
       </c>
-      <c r="EJ11" s="4" t="s">
+      <c r="EJ11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="EK11" s="4" t="s">
+      <c r="EK11" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="EL11" s="4">
+      <c r="EL11" s="7">
         <v>1036397889</v>
       </c>
-      <c r="EN11" s="4" t="s">
+      <c r="EN11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="EY11" s="4" t="s">
+      <c r="EY11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ11" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB11" s="4">
+      <c r="EZ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="7">
         <v>103976286</v>
       </c>
-      <c r="FC11" s="4">
+      <c r="FC11" s="7">
         <v>1400219670</v>
       </c>
-      <c r="FE11" s="8">
+      <c r="FE11" s="11">
         <v>43496</v>
       </c>
-      <c r="FF11" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ11" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK11" s="4">
+      <c r="FF11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="7">
         <v>2</v>
       </c>
-      <c r="FM11" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN11" s="4">
-        <v>0</v>
-      </c>
-      <c r="FR11" s="4">
+      <c r="FM11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FR11" s="7">
         <v>2</v>
       </c>
-      <c r="FX11" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY11" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ11" s="4">
+      <c r="FX11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ11" s="7">
         <v>1378908</v>
       </c>
-      <c r="GA11" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB11" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC11" s="4">
+      <c r="GA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:185" s="4" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:185" s="7" customFormat="1">
+      <c r="A12" s="7">
         <v>2000375694</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="15">
         <v>1000000</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>1400219679</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
         <v>7100280642</v>
       </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
         <v>21930002</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="7">
         <v>57</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="7">
         <v>250</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="7">
         <v>21450104</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="7">
         <v>10</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="7">
         <v>9999999999</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="7">
         <v>2080469</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="7">
         <v>7208020703</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="7">
         <v>2019</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Pagos_SAP!A12,Egresos_SIGEP!G:G,Pagos_SAP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A12,Pagos_SAP!G:G,Pagos_SAP!G:G)-Y12</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Pagos_SAP!A12,Pagos_SAP!G:G,Pagos_SAP!G:G)*24.023%</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="4" t="s">
+      <c r="AF12" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AG12" s="4" t="s">
+      <c r="AG12" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AH12" s="7">
         <v>3</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AI12" s="7">
         <v>30</v>
       </c>
-      <c r="AK12" s="4" t="s">
+      <c r="AK12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AN12" s="4">
+      <c r="AN12" s="7">
         <v>1.2019</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AO12" s="7">
         <v>3000000042824522</v>
       </c>
-      <c r="AQ12" s="4" t="s">
+      <c r="AQ12" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AR12" s="4" t="s">
+      <c r="AR12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="AS12" s="4" t="s">
+      <c r="AS12" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AT12" s="4" t="s">
+      <c r="AT12" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AU12" s="4" t="s">
+      <c r="AU12" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AV12" s="4" t="s">
+      <c r="AV12" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AX12" s="4">
+      <c r="AX12" s="7">
         <v>110</v>
       </c>
-      <c r="AZ12" s="4">
+      <c r="AZ12" s="7">
         <v>21930002</v>
       </c>
-      <c r="BA12" s="4" t="s">
+      <c r="BA12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BE12" s="4">
+      <c r="BE12" s="7">
         <v>21930002</v>
       </c>
-      <c r="BF12" s="4" t="s">
+      <c r="BF12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="BG12" s="4" t="s">
+      <c r="BG12" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="BH12" s="4">
+      <c r="BH12" s="7">
         <v>1400219679</v>
       </c>
-      <c r="BI12" s="4" t="s">
+      <c r="BI12" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="BK12" s="4">
+      <c r="BK12" s="7">
         <v>2019</v>
       </c>
-      <c r="BL12" s="4">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="4">
+      <c r="BL12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="7">
         <v>2019</v>
       </c>
-      <c r="BP12" s="4" t="s">
+      <c r="BP12" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="BQ12" s="4" t="s">
+      <c r="BQ12" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="BR12" s="4" t="s">
+      <c r="BR12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BS12" s="4" t="s">
+      <c r="BS12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="BT12" s="4">
-        <v>0</v>
-      </c>
-      <c r="BU12" s="4">
+      <c r="BT12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="7">
         <v>1000000</v>
       </c>
-      <c r="BV12" s="4">
-        <v>0</v>
-      </c>
-      <c r="BW12" s="4">
-        <v>0</v>
-      </c>
-      <c r="BX12" s="4">
+      <c r="BV12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="7">
         <v>11284253495</v>
       </c>
-      <c r="BZ12" s="4">
+      <c r="BZ12" s="7">
         <v>1128425349</v>
       </c>
-      <c r="CC12" s="4" t="s">
+      <c r="CC12" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="CD12" s="8">
+      <c r="CD12" s="11">
         <v>43493</v>
       </c>
-      <c r="CE12" s="4">
-        <v>1</v>
-      </c>
-      <c r="CF12" s="8">
+      <c r="CE12" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="11">
         <v>43495</v>
       </c>
-      <c r="CG12" s="8">
+      <c r="CG12" s="11">
         <v>43495</v>
       </c>
-      <c r="CH12" s="4" t="s">
+      <c r="CH12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="CI12" s="8">
+      <c r="CI12" s="11">
         <v>43496</v>
       </c>
-      <c r="CJ12" s="4" t="s">
+      <c r="CJ12" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="CK12" s="4" t="s">
+      <c r="CK12" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="CN12" s="4" t="s">
+      <c r="CN12" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="DG12" s="4">
-        <v>0</v>
-      </c>
-      <c r="DH12" s="4">
-        <v>0</v>
-      </c>
-      <c r="DQ12" s="8">
+      <c r="DG12" s="7">
+        <v>0</v>
+      </c>
+      <c r="DH12" s="7">
+        <v>0</v>
+      </c>
+      <c r="DQ12" s="11">
         <v>43465</v>
       </c>
-      <c r="DX12" s="4" t="s">
+      <c r="DX12" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="EA12" s="4" t="s">
+      <c r="EA12" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="EB12" s="4" t="s">
+      <c r="EB12" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="ED12" s="4" t="s">
+      <c r="ED12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="EF12" s="4">
-        <v>1</v>
-      </c>
-      <c r="EG12" s="4" t="s">
+      <c r="EF12" s="7">
+        <v>1</v>
+      </c>
+      <c r="EG12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="EH12" s="4">
+      <c r="EH12" s="7">
         <v>5</v>
       </c>
-      <c r="EI12" s="4">
+      <c r="EI12" s="7">
         <v>914021050</v>
       </c>
-      <c r="EJ12" s="4" t="s">
+      <c r="EJ12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="EK12" s="4" t="s">
+      <c r="EK12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="EL12" s="4">
+      <c r="EL12" s="7">
         <v>11284253495</v>
       </c>
-      <c r="EN12" s="4" t="s">
+      <c r="EN12" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="EY12" s="4" t="s">
+      <c r="EY12" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="EZ12" s="4">
-        <v>0</v>
-      </c>
-      <c r="FB12" s="4">
+      <c r="EZ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB12" s="7">
         <v>103976678</v>
       </c>
-      <c r="FC12" s="4">
+      <c r="FC12" s="7">
         <v>1400219679</v>
       </c>
-      <c r="FE12" s="8">
+      <c r="FE12" s="11">
         <v>43496</v>
       </c>
-      <c r="FF12" s="4">
-        <v>0</v>
-      </c>
-      <c r="FJ12" s="4">
-        <v>0</v>
-      </c>
-      <c r="FK12" s="4">
+      <c r="FF12" s="7">
+        <v>0</v>
+      </c>
+      <c r="FJ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="FK12" s="7">
         <v>2</v>
       </c>
-      <c r="FM12" s="4">
-        <v>0</v>
-      </c>
-      <c r="FN12" s="4">
-        <v>0</v>
-      </c>
-      <c r="FR12" s="4">
+      <c r="FM12" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="7">
+        <v>0</v>
+      </c>
+      <c r="FR12" s="7">
         <v>2</v>
       </c>
-      <c r="FX12" s="4">
-        <v>0</v>
-      </c>
-      <c r="FY12" s="4">
-        <v>0</v>
-      </c>
-      <c r="FZ12" s="4">
+      <c r="FX12" s="7">
+        <v>0</v>
+      </c>
+      <c r="FY12" s="7">
+        <v>0</v>
+      </c>
+      <c r="FZ12" s="7">
         <v>1000000</v>
       </c>
-      <c r="GA12" s="4">
-        <v>0</v>
-      </c>
-      <c r="GB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="GC12" s="4">
+      <c r="GA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="GB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="GC12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:185">
-      <c r="B13" s="2">
+      <c r="B13" s="14">
+        <v>12985960</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUM(Y2:Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>SUM(Z2:Z12)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>SUM(AA2:AA12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:185">
+      <c r="B14" s="4">
         <f>SUM(B2:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <f>SUM(Y2:Y12)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <f>SUM(Z2:Z12)</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2">
-        <f>SUM(AA2:AA12)</f>
         <v>0</v>
       </c>
     </row>
@@ -7467,566 +7569,566 @@
     <col min="1" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1">
-      <c r="A2" s="4">
+    <row r="2" spans="1:14" s="7" customFormat="1">
+      <c r="A2" s="7">
         <v>2000477483</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="15">
         <v>46480</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>51226</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>1.5488928e+18</v>
       </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
         <v>51225</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A2,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A2,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1">
-      <c r="A3" s="4">
+    <row r="3" spans="1:14" s="7" customFormat="1">
+      <c r="A3" s="7">
         <v>2000477481</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="15">
         <v>106904</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>51227</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>1.5488928e+18</v>
       </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
         <v>51224</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A3,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A3,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:14" s="7" customFormat="1">
+      <c r="A4" s="7">
         <v>2000399447</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="15">
         <v>185000</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>49315</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>1.54872e+18</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
         <v>40918</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A4,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A4,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:14" s="7" customFormat="1">
+      <c r="A5" s="7">
         <v>2000375694</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="15">
         <v>1000000</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>48936</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>1.5486336e+18</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
         <v>39280</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A5,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A5,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1">
-      <c r="A6" s="4">
+    <row r="6" spans="1:14" s="7" customFormat="1">
+      <c r="A6" s="7">
         <v>2000395353</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="15">
         <v>787500</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>49665</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>1.5488928e+18</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
         <v>39667</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A6,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A6,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:14" s="7" customFormat="1">
+      <c r="A7" s="7">
         <v>2000366438</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="15">
         <v>184432</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>49667</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>1.5488928e+18</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
         <v>36999</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A7,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A7,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1">
-      <c r="A8" s="4">
+    <row r="8" spans="1:14" s="7" customFormat="1">
+      <c r="A8" s="7">
         <v>2000468122</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="15">
         <v>390620</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>50814</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>1.5488928e+18</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
         <v>47555</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A8,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A8,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1">
-      <c r="A9" s="4">
+    <row r="9" spans="1:14" s="7" customFormat="1">
+      <c r="A9" s="7">
         <v>2000468121</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="15">
         <v>390620</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>50817</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>1.5488928e+18</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
         <v>47556</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A9,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A9,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1">
-      <c r="A10" s="4">
+    <row r="10" spans="1:14" s="7" customFormat="1">
+      <c r="A10" s="7">
         <v>2000462815</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="15">
         <v>737720</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>49668</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>1.5488928e+18</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
         <v>47047</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A10,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A10,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:14" s="7" customFormat="1">
+      <c r="A11" s="7">
         <v>2000419112</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="15">
         <v>1378908</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>48858</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>1.5483744e+18</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
         <v>42813</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A11,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A11,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:14" s="7" customFormat="1">
+      <c r="A12" s="7">
         <v>2000457773</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="15">
         <v>7777776</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>49666</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <v>1.5488928e+18</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
         <v>45844</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="15">
         <f>SUMAR.SI.CONJUNTO(Pagos_SAP!B:B,Pagos_SAP!A:A,Egresos_SIGEP!A12,Pagos_SAP!G:G,Egresos_SIGEP!G:G)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="15">
         <f>SUMAR.SI.CONJUNTO(Egresos_SIGEP!B:B,Egresos_SIGEP!A:A,Egresos_SIGEP!A12,Egresos_SIGEP!G:G,Egresos_SIGEP!G:G)-L12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <f>SUM(B2:B12)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <f>SUM(L2:L12)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <f>SUM(M2:M12)</f>
         <v>0</v>
       </c>
@@ -8046,27 +8148,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="28" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <f>SUM(B2:B1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="16" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <f>SUM(B6:B5)</f>
         <v>0</v>
       </c>
@@ -8075,8 +8177,7 @@
       <c r="A8" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="2">
-        <f>B2</f>
+      <c r="B8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8084,8 +8185,7 @@
       <c r="A9" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="2">
-        <f>B6</f>
+      <c r="B9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -8093,7 +8193,7 @@
       <c r="A10" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <f>B8-B9</f>
         <v>0</v>
       </c>
